--- a/agriculture 46.xlsx
+++ b/agriculture 46.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FB52FF4-F20D-4EA6-8946-9DEF4554EE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6015C9BA-6257-43D5-B51C-5770DE34EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -364,36 +364,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,38 +703,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" activeCellId="1" sqref="A1:XFD1 A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="T1" activeCellId="4" sqref="R1:R1048576 Q1:Q1048576 P1:P1048576 S1:S1048576 T1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="24" width="10.69921875" customWidth="1"/>
+    <col min="1" max="15" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:24" ht="27.6">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="27.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,7 +781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -828,17 +827,8 @@
       <c r="O3" s="4">
         <v>3.96</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -884,17 +874,8 @@
       <c r="O4" s="4">
         <v>3.84</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -940,17 +921,8 @@
       <c r="O5" s="4">
         <v>3.19</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -996,17 +968,8 @@
       <c r="O6" s="4">
         <v>3.74</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1052,17 +1015,8 @@
       <c r="O7" s="4">
         <v>3.71</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1108,17 +1062,8 @@
       <c r="O8" s="4">
         <v>3.65</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1164,17 +1109,8 @@
       <c r="O9" s="4">
         <v>3.27</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1220,17 +1156,8 @@
       <c r="O10" s="4">
         <v>3.48</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1276,17 +1203,8 @@
       <c r="O11" s="4">
         <v>4.43</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1332,17 +1250,8 @@
       <c r="O12" s="4">
         <v>3.62</v>
       </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1388,17 +1297,8 @@
       <c r="O13" s="4">
         <v>3.53</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1444,17 +1344,8 @@
       <c r="O14" s="4">
         <v>3.5</v>
       </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1500,17 +1391,8 @@
       <c r="O15" s="4">
         <v>3</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1556,17 +1438,8 @@
       <c r="O16" s="4">
         <v>3.31</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1612,17 +1485,8 @@
       <c r="O17" s="4">
         <v>2.8</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1668,17 +1532,8 @@
       <c r="O18" s="4">
         <v>2.17</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1724,17 +1579,8 @@
       <c r="O19" s="4">
         <v>4.13</v>
       </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1780,17 +1626,8 @@
       <c r="O20" s="4">
         <v>3.76</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1836,17 +1673,8 @@
       <c r="O21" s="4">
         <v>2.77</v>
       </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1892,17 +1720,8 @@
       <c r="O22" s="4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1948,17 +1767,8 @@
       <c r="O23" s="4">
         <v>3.8</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2004,15 +1814,6 @@
       <c r="O24" s="4">
         <v>4</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
